--- a/Data/ChildTaxCredit.xlsx
+++ b/Data/ChildTaxCredit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ED3058-DE95-EA42-80F7-70F6F47A0542}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3611133-C0AC-3D41-A97C-47E3BF2608A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1260" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Question</t>
   </si>
@@ -62,21 +62,6 @@
   </si>
   <si>
     <t>If no, why don't you expect to receive it?</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Savings or other investments</t>
   </si>
   <si>
     <t>How did you learn about the Child Tax Credit? Select all that apply.</t>
@@ -92,12 +77,6 @@
 •No
 •Unsure
 •Rather not say</t>
-  </si>
-  <si>
-    <t>•Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years
-•Yes, I expect to receive it because I will update my information via the IRS portal
-•No
-•Unsure</t>
   </si>
   <si>
     <t>•All
@@ -107,16 +86,60 @@
 •None</t>
   </si>
   <si>
+    <t>•The Child Tax Credit is temporary
+•The Child Tax Credit is permanent for parents of children 18 and under
+•The Child Tax Credit is potentially permanent for parents of children 18 and under</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed in collaboration with the Center on Budget and Policy Priorities </t>
+  </si>
+  <si>
+    <t>•Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years
+•Yes, I expect to receive it because I will sign up via the IRS portal
+•No
+•Unsure</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Savings or other investments</t>
+  </si>
+  <si>
     <t>•A friend or family member
 •The news
 •Social media
 •A community-based organization
-•A teacher, counselor, or other service provider</t>
-  </si>
-  <si>
-    <t>•The Child Tax Credit is temporary
-•The Child Tax Credit is permanent for parents of children 18 and under
-•The Child Tax Credit is potentially permanent for parents of children 18 and under</t>
+•A teacher, counselor, or other service provider
+• I did not know about the Child Tax Credit before this survey
+• Other, please specify</t>
+  </si>
+  <si>
+    <t>61, 63</t>
+  </si>
+  <si>
+    <t>https://www.cbpp.org/</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Household items (e.g., books, computer, etc.)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other, please specify:</t>
+  </si>
+  <si>
+    <t>61, 65</t>
+  </si>
+  <si>
+    <t>61, 63, 65</t>
   </si>
 </sst>
 </file>
@@ -522,17 +545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="79.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" style="6" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -544,7 +568,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -559,35 +583,50 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17">
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="153">
@@ -595,127 +634,196 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5">
-        <v>61</v>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="85">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="85">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85">
       <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="119">
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="85">
       <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="85">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="208" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="153">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="153">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="3"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5">
@@ -723,6 +831,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5">
+      <c r="B19" s="3"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5">
@@ -731,6 +840,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data/ChildTaxCredit.xlsx
+++ b/Data/ChildTaxCredit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3611133-C0AC-3D41-A97C-47E3BF2608A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E858B2-0D43-3445-817D-2C67C1FABA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="13080" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>Question</t>
   </si>
@@ -52,25 +52,13 @@
     <t>Did your household file federal income taxes in the last two years?</t>
   </si>
   <si>
-    <t>If no, do you know how to access the IRS portal beginning July 1, 2021?</t>
-  </si>
-  <si>
-    <t>If no, do you have someone who can help you access the IRS portal beginning July 1, 2021?</t>
-  </si>
-  <si>
     <t>Do you expect to receive the Child Tax Credit?</t>
   </si>
   <si>
     <t>If no, why don't you expect to receive it?</t>
   </si>
   <si>
-    <t>How did you learn about the Child Tax Credit? Select all that apply.</t>
-  </si>
-  <si>
     <t>How would receiving the $250 or $300 monthly payment for each child in your family for the next six months affect you and your family?</t>
-  </si>
-  <si>
-    <t>Please select the answer that best represents your understanding of the Child Tax Credit:</t>
   </si>
   <si>
     <t>•Yes
@@ -86,67 +74,120 @@
 •None</t>
   </si>
   <si>
-    <t>•The Child Tax Credit is temporary
-•The Child Tax Credit is permanent for parents of children 18 and under
-•The Child Tax Credit is potentially permanent for parents of children 18 and under</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developed in collaboration with the Center on Budget and Policy Priorities </t>
   </si>
   <si>
-    <t>•Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Savings or other investments</t>
+  </si>
+  <si>
+    <t>https://www.cbpp.org/</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Household items (e.g., books, computer, etc.)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other, please specify:</t>
+  </si>
+  <si>
+    <t>61, 65, 67</t>
+  </si>
+  <si>
+    <t>If no, do you know how to access the IRS portal?</t>
+  </si>
+  <si>
+    <t>If no, do you have someone who can help you access the IRS portal?</t>
+  </si>
+  <si>
+    <t>• I have already received the Child Tax Credit
+• Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years
 •Yes, I expect to receive it because I will sign up via the IRS portal
 •No
 •Unsure</t>
   </si>
   <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Savings or other investments</t>
-  </si>
-  <si>
-    <t>•A friend or family member
-•The news
-•Social media
-•A community-based organization
-•A teacher, counselor, or other service provider
+    <t>61, 63, 65, 67</t>
+  </si>
+  <si>
+    <t>65, 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes
+• No
+• Unsure
+</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Savings or other investments</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Household items (e.g., books, computer, etc.)</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Other, please specify:</t>
+  </si>
+  <si>
+    <t>You may have received this $250 or $300 per child parment from the IRS around the 15th of the month through direct deposit, a paper check, or a debit cardDid you receive a monthly Child Tax Credit payment from the IRS in the past four weeks?</t>
+  </si>
+  <si>
+    <t>Compared to one month ago, is the financial situation of you and your family now…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Better
+• Worse
+• About the same
+</t>
+  </si>
+  <si>
+    <t>How did you learn about the Child Tax Credit?</t>
+  </si>
+  <si>
+    <t>• A friend or family member
+• The news
+• Social media
+• A community-based organization
+• A teacher, counselor, or other service provider
 • I did not know about the Child Tax Credit before this survey
 • Other, please specify</t>
   </si>
   <si>
-    <t>61, 63</t>
-  </si>
-  <si>
-    <t>https://www.cbpp.org/</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Household items (e.g., books, computer, etc.)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other, please specify:</t>
-  </si>
-  <si>
-    <t>61, 65</t>
-  </si>
-  <si>
-    <t>61, 63, 65</t>
+    <t>Please select the answer that best represents your understanding of the Child Tax Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• the Child Tax Credit is temporary
+• The Child Tax Credit is permanent for parents of children 17 and under
+• The Child Tax Crdit is potentially permanent for parents of children 17 and under
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +220,13 @@
       <color theme="1"/>
       <name val="ArialUnicodeMS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -228,6 +276,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -583,270 +634,387 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="153">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="187">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="85">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="85">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="85">
       <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="85">
-      <c r="A13" s="3" t="s">
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="68">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="85">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="208" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="85">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="85">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="51">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="85">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="85">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="85">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="68">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="187">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="153">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="3"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="3"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="E23" s="5"/>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="170">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data/ChildTaxCredit.xlsx
+++ b/Data/ChildTaxCredit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30930C2D-203D-FB48-A3D6-5A975ED02DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F617CF-E802-6044-B91F-86257E12F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12400" yWindow="1100" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>Question</t>
   </si>
@@ -99,15 +99,6 @@
   </si>
   <si>
     <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other, please specify:</t>
-  </si>
-  <si>
-    <t>61, 65, 67</t>
-  </si>
-  <si>
-    <t>If no, do you know how to access the IRS portal?</t>
-  </si>
-  <si>
-    <t>If no, do you have someone who can help you access the IRS portal?</t>
   </si>
   <si>
     <t>• I have already received the Child Tax Credit
@@ -177,12 +168,6 @@
 </t>
   </si>
   <si>
-    <t>69, 71, 73</t>
-  </si>
-  <si>
-    <t>73, 75</t>
-  </si>
-  <si>
     <t>61, 65, 67, 69, 73, 75</t>
   </si>
   <si>
@@ -198,10 +183,43 @@
     <t>67, 69, 73, 75</t>
   </si>
   <si>
-    <t>67, 69, 73</t>
-  </si>
-  <si>
-    <t>61, 65, 67, 69, 71, 73</t>
+    <t>61, 65, 67, 69, 73, 75, 81</t>
+  </si>
+  <si>
+    <t>Do you know how to access the IRS portal?</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 81</t>
+  </si>
+  <si>
+    <t>Do you have someone who can help you access the IRS portal?</t>
+  </si>
+  <si>
+    <t>How many payments have you received so far?</t>
+  </si>
+  <si>
+    <t>69, 71, 73, 81</t>
+  </si>
+  <si>
+    <t>How much did you receive in each payment?</t>
+  </si>
+  <si>
+    <t>73, 75, 81</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 81</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 75, 81</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 69, 71, 73, 81</t>
+  </si>
+  <si>
+    <t>To what extent has the Child Tax Credit affected your financial situation and how?</t>
+  </si>
+  <si>
+    <t>Since the Child Tax Credit checks started being sent in July, is your and your family's financial situation...</t>
   </si>
 </sst>
 </file>
@@ -646,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F23" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -698,7 +716,7 @@
     </row>
     <row r="3" spans="1:6" ht="51">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -710,13 +728,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="51">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -737,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -746,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -782,7 +800,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -800,7 +818,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -818,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -836,7 +854,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -854,7 +872,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -866,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -875,28 +893,28 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="68">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="85">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -908,13 +926,13 @@
         <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="85">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -926,13 +944,13 @@
         <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="85">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -944,13 +962,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="85">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -962,13 +980,13 @@
         <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="85">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -980,13 +998,13 @@
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="85">
       <c r="A20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -998,13 +1016,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="85">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1016,28 +1034,28 @@
         <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="68">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="187">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -1064,16 +1082,16 @@
         <v>19</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="170">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
@@ -1082,31 +1100,55 @@
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="17">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="17">
+      <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="E26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="E28" s="12" t="s">
-        <v>42</v>
+    <row r="28" spans="1:6" ht="17">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>81</v>
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="E29" s="12" t="s">
-        <v>41</v>
+    <row r="29" spans="1:6" ht="68">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="12">
+        <v>81</v>
       </c>
       <c r="F29" s="12"/>
     </row>

--- a/Data/ChildTaxCredit.xlsx
+++ b/Data/ChildTaxCredit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F617CF-E802-6044-B91F-86257E12F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6E1BDF-55CA-474A-AFEF-4A07533926AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="1100" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>Question</t>
   </si>
@@ -183,43 +183,55 @@
     <t>67, 69, 73, 75</t>
   </si>
   <si>
-    <t>61, 65, 67, 69, 73, 75, 81</t>
-  </si>
-  <si>
     <t>Do you know how to access the IRS portal?</t>
   </si>
   <si>
-    <t>61, 65, 67, 81</t>
-  </si>
-  <si>
     <t>Do you have someone who can help you access the IRS portal?</t>
   </si>
   <si>
     <t>How many payments have you received so far?</t>
   </si>
   <si>
-    <t>69, 71, 73, 81</t>
-  </si>
-  <si>
     <t>How much did you receive in each payment?</t>
   </si>
   <si>
-    <t>73, 75, 81</t>
-  </si>
-  <si>
-    <t>67, 69, 73, 81</t>
-  </si>
-  <si>
-    <t>67, 69, 73, 75, 81</t>
-  </si>
-  <si>
-    <t>61, 65, 67, 69, 71, 73, 81</t>
-  </si>
-  <si>
     <t>To what extent has the Child Tax Credit affected your financial situation and how?</t>
   </si>
   <si>
     <t>Since the Child Tax Credit checks started being sent in July, is your and your family's financial situation...</t>
+  </si>
+  <si>
+    <t>How many children are your CTC payments based on?</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 69, 73, 75,</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 69, 73, 75, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 75, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 69, 71, 73, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>69, 71, 73, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>73, 75, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>81, 85, 87</t>
+  </si>
+  <si>
+    <t>83, 85, 87</t>
   </si>
 </sst>
 </file>
@@ -270,6 +282,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -311,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -347,6 +360,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -664,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -710,13 +724,13 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="51">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -728,13 +742,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="51">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -746,7 +760,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -764,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -782,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -800,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -926,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -944,7 +958,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -962,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -980,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -998,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -1016,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -1034,7 +1048,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="12"/>
     </row>
@@ -1064,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F23" s="12"/>
     </row>
@@ -1100,59 +1114,68 @@
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="17">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>48</v>
+      <c r="E26" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="17">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>50</v>
+      <c r="E27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="17">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="12">
-        <v>81</v>
+      <c r="E28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="68">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="12">
-        <v>81</v>
+      <c r="E29" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="17">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6">

--- a/Data/ChildTaxCredit.xlsx
+++ b/Data/ChildTaxCredit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6E1BDF-55CA-474A-AFEF-4A07533926AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9BA2BEA-8D06-2A49-B03D-803E6493BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>Question</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>You may have received this $250 or $300 per child parment from the IRS around the 15th of the month through direct deposit, a paper check, or a debit cardDid you receive a monthly Child Tax Credit payment from the IRS in the past four weeks?</t>
-  </si>
-  <si>
-    <t>Compared to one month ago, is the financial situation of you and your family now…</t>
   </si>
   <si>
     <t xml:space="preserve">• Better
@@ -213,32 +210,74 @@
     <t>61, 65, 67, 81, 83, 85, 87</t>
   </si>
   <si>
-    <t>67, 69, 73, 81, 83, 85, 87</t>
-  </si>
-  <si>
-    <t>67, 69, 73, 75, 81, 83, 85, 87</t>
-  </si>
-  <si>
     <t>61, 65, 67, 69, 71, 73, 81, 83, 85, 87</t>
   </si>
   <si>
-    <t>69, 71, 73, 81, 83, 85, 87</t>
-  </si>
-  <si>
-    <t>73, 75, 81, 83, 85, 87</t>
-  </si>
-  <si>
     <t>81, 85, 87</t>
   </si>
   <si>
-    <t>83, 85, 87</t>
+    <t>61, 65, 67, 69, 73, 75, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>Do you plan to file your federal income taxes in 2022?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  
+o Unsure  
+o I'd rather not say  </t>
+  </si>
+  <si>
+    <t>69, 71, 73, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>73, 75, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>Did you receive the monthly Child Tax Credit payments in 2021?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No 
+o No, I did not expect to receive them  </t>
+  </si>
+  <si>
+    <t>67, 69, 73, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 75, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>017 Since the Child Tax Credit checks started being sent in July, is your and your family's financial situation…</t>
+  </si>
+  <si>
+    <t>Are you aware that, unless Congress decides to continue the increase in the Child Tax Credit, the last monthly payment was sent to families in December 2021?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No </t>
+  </si>
+  <si>
+    <t>Are you aware that families should file taxes this year (2022) to get the remainder of their increased 2021 Child Tax Credit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes 
+o No  </t>
+  </si>
+  <si>
+    <t>As you may know, President Biden's administration passed the American Rescue Plan Act, which temporarily increased the Child Tax Credit (CTC) in 2021 to $3,000/year per child age 6-17 and $3,600/year per child age 0-5. Most families received half of their expected 2021 CTC as monthly payments of up to $300/month per child age 0-5 and $250/month per child age 6-17 in July-December 2021.
+These families can receive the second half of their CTC - up to $1,500-$1,800 per child - by filing their taxes in 2022. Families that are eligible but did not receive the monthly payments can get their full benefit - up to $3,000-$3,600 per child - by filing taxes in 2022.
+R3.CTAX.022 How would it impact your family's financial situation if Congress decides not to continue the monthly Child Tax Credit payments?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +324,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -324,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -361,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -676,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -724,31 +772,27 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="51">
+    <row r="3" spans="1:6" ht="68">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5">
+        <v>89</v>
       </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="51">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -756,7 +800,7 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -764,35 +808,35 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="187">
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="187">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="51">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -800,17 +844,17 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="85">
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -820,7 +864,7 @@
     </row>
     <row r="8" spans="1:6" ht="85">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -832,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="85">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -850,13 +894,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="85">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -868,13 +912,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="85">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -886,67 +930,67 @@
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="85">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="68">
+    <row r="13" spans="1:6" ht="85">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="68">
       <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="68">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="85">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="85">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -957,14 +1001,14 @@
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>54</v>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="85">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -976,13 +1020,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="85">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -994,13 +1038,13 @@
         <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="85">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -1012,13 +1056,13 @@
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="85">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1030,13 +1074,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="85">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1047,142 +1091,201 @@
       <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="85">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="68">
+      <c r="A23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="34">
+      <c r="A24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="34">
+      <c r="A25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="187">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="68">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="187">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="51">
-      <c r="A24" s="3" t="s">
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="51">
+      <c r="A27" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="170">
-      <c r="A25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="17">
-      <c r="A26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>57</v>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="17">
+    <row r="28" spans="1:6" ht="170">
       <c r="A28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="68">
       <c r="A29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="5">
+        <v>89</v>
       </c>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="17">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="17">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" ht="68">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" ht="17">
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="F32" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" ht="255">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>89</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="F36" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data/ChildTaxCredit.xlsx
+++ b/Data/ChildTaxCredit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9BA2BEA-8D06-2A49-B03D-803E6493BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7B3EA24-3250-B946-A2CE-8E1CDB2D5375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
   <si>
     <t>Question</t>
   </si>
@@ -189,9 +189,6 @@
     <t>How many payments have you received so far?</t>
   </si>
   <si>
-    <t>How much did you receive in each payment?</t>
-  </si>
-  <si>
     <t>To what extent has the Child Tax Credit affected your financial situation and how?</t>
   </si>
   <si>
@@ -231,12 +228,6 @@
     <t>69, 71, 73, 81, 83, 85, 87, 89</t>
   </si>
   <si>
-    <t>73, 75, 81, 83, 85, 87, 89</t>
-  </si>
-  <si>
-    <t>83, 85, 87, 89</t>
-  </si>
-  <si>
     <t>Did you receive the monthly Child Tax Credit payments in 2021?</t>
   </si>
   <si>
@@ -245,12 +236,6 @@
 o No, I did not expect to receive them  </t>
   </si>
   <si>
-    <t>67, 69, 73, 81, 83, 85, 87, 89</t>
-  </si>
-  <si>
-    <t>67, 69, 73, 75, 81, 83, 85, 87, 89</t>
-  </si>
-  <si>
     <t>017 Since the Child Tax Credit checks started being sent in July, is your and your family's financial situation…</t>
   </si>
   <si>
@@ -271,13 +256,66 @@
     <t>As you may know, President Biden's administration passed the American Rescue Plan Act, which temporarily increased the Child Tax Credit (CTC) in 2021 to $3,000/year per child age 6-17 and $3,600/year per child age 0-5. Most families received half of their expected 2021 CTC as monthly payments of up to $300/month per child age 0-5 and $250/month per child age 6-17 in July-December 2021.
 These families can receive the second half of their CTC - up to $1,500-$1,800 per child - by filing their taxes in 2022. Families that are eligible but did not receive the monthly payments can get their full benefit - up to $3,000-$3,600 per child - by filing taxes in 2022.
 R3.CTAX.022 How would it impact your family's financial situation if Congress decides not to continue the monthly Child Tax Credit payments?</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 69, 73, 75, 81, 83, 85, 87, 89, 90</t>
+  </si>
+  <si>
+    <t>89, 90</t>
+  </si>
+  <si>
+    <t>How manymonthly payments did you receivebetween July and December, 2021?</t>
+  </si>
+  <si>
+    <t>open ended</t>
+  </si>
+  <si>
+    <t>73, 75, 81, 83, 85, 87, 89, 90</t>
+  </si>
+  <si>
+    <t>How much did you receive in each monthly payment?</t>
+  </si>
+  <si>
+    <r>
+      <t>83, 85, 87, 89</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 90</t>
+    </r>
+  </si>
+  <si>
+    <t>67, 69, 73, 81, 83, 85, 87, 89, 90</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 75, 81, 83, 85, 87, 89, 90</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 75, 90</t>
+  </si>
+  <si>
+    <t>Before the monthly payments began in July 2021, households with children received their Child Tax Credit in one lump sum when they file their taxes. How would you refer to receive your Child Tax Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o A monthly payment 
+o A lump sum one time per year  </t>
+  </si>
+  <si>
+    <t>87, 90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,6 +367,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -724,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -772,21 +818,21 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="68">
       <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="5">
-        <v>89</v>
+      <c r="E3" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -804,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -822,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -840,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -858,7 +904,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -876,7 +922,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -1002,7 +1048,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -1020,7 +1066,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -1038,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -1056,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -1074,7 +1120,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -1092,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F21" s="12"/>
     </row>
@@ -1110,182 +1156,210 @@
         <v>19</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="68">
       <c r="A23" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="34">
+    <row r="24" spans="1:6" ht="51">
       <c r="A24" s="14" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="E24" s="5">
+        <v>90</v>
+      </c>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="34">
       <c r="A25" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="187">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:6" ht="34">
+      <c r="A26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="187">
+      <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="51">
-      <c r="A27" s="3" t="s">
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="51">
+      <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="170">
-      <c r="A28" s="3" t="s">
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="170">
+      <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" ht="68">
-      <c r="A29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="5">
-        <v>89</v>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="17">
+    <row r="30" spans="1:6" ht="68">
       <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="13" t="s">
         <v>57</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="17">
       <c r="A31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="5">
+        <v>90</v>
       </c>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="17">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" ht="68">
+    <row r="33" spans="1:6" ht="17">
       <c r="A33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" ht="17">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>59</v>
+      <c r="E34" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="255">
+    <row r="35" spans="1:6" ht="68">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" ht="17">
+      <c r="A36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="6">
-        <v>89</v>
-      </c>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="E36" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" ht="255">
+      <c r="A37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="F38" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
